--- a/public/assets/categories_bulk_without_data_format.xlsx
+++ b/public/assets/categories_bulk_without_data_format.xlsx
@@ -20,32 +20,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParentId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -66,6 +71,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,15 +134,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -151,22 +163,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="29.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="89.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.02"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.85"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -182,79 +195,12 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
